--- a/medicine/Soins infirmiers et profession infirmière/1969_en_santé_et_médecine/1969_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1969_en_santé_et_médecine/1969_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1969_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1969_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1969 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1969_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1969_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>21 janvier : accident à la centrale nucléaire de Lucens en Suisse, mais « aucun danger pour le public[1] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>21 janvier : accident à la centrale nucléaire de Lucens en Suisse, mais « aucun danger pour le public ».
 4 avril : à Houston (États-Unis), Denton Cooley (en) greffe un « cœur d'attente » en plastique.
-1er novembre : Dorothy Crowfoot Hodgkin publie la structure tridimensionnelle de l'insuline[2].
-Novembre : séquençage de l'hormone thyréotrope par Roger Guillemin et Andrew Schally[3],[4].
+1er novembre : Dorothy Crowfoot Hodgkin publie la structure tridimensionnelle de l'insuline.
+Novembre : séquençage de l'hormone thyréotrope par Roger Guillemin et Andrew Schally,.
 Traduction en français, sous le titre de La Forteresse vide, de The Empty Fortress, ouvrage de Bruno Bettelheim sur l’autisme infantile.</t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1969_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1969_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>26 février : Karl Jaspers (né en 1883), psychiatre et philosophe allemand-suisse représentatif de l'existentialisme chrétien[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>26 février : Karl Jaspers (né en 1883), psychiatre et philosophe allemand-suisse représentatif de l'existentialisme chrétien.
 8 décembre : Fuller Albright (en) (né en 1900), endocrinologiste américain, spécialiste du métabolisme du calcium.</t>
         </is>
       </c>
